--- a/task/pavlovia_/Trials_.xlsx
+++ b/task/pavlovia_/Trials_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\outreach_wm\task\pavlovia_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C57066-A122-4DDF-ABE4-5D7ABC97E529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB2EBA4-D1EC-4369-B125-161CA860595E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F538CB62-4FC4-451F-928A-7C8D061C0452}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>[1,1,1]</t>
   </si>
@@ -39,19 +39,37 @@
     <t>[1,1,0]</t>
   </si>
   <si>
-    <t>Color1</t>
-  </si>
-  <si>
-    <t>Color2</t>
-  </si>
-  <si>
     <t>[0,0,1]</t>
   </si>
   <si>
     <t>[1,0.5,1]</t>
   </si>
   <si>
-    <t>Color3</t>
+    <t>[0,0,0]</t>
+  </si>
+  <si>
+    <t>Color0</t>
+  </si>
+  <si>
+    <t>Color45</t>
+  </si>
+  <si>
+    <t>Color90</t>
+  </si>
+  <si>
+    <t>Color135</t>
+  </si>
+  <si>
+    <t>Color180</t>
+  </si>
+  <si>
+    <t>Color225</t>
+  </si>
+  <si>
+    <t>Color270</t>
+  </si>
+  <si>
+    <t>Color315</t>
   </si>
 </sst>
 </file>
@@ -429,30 +447,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A723E038-B7CB-4FFF-AAF1-487F7C2E22ED}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -460,29 +493,74 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
